--- a/signals_log.xlsx
+++ b/signals_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
   <si>
     <t>time</t>
   </si>
@@ -277,6 +277,9 @@
     <t>2025-09-01 22:42:25</t>
   </si>
   <si>
+    <t>2025-09-01 22:49:34</t>
+  </si>
+  <si>
     <t>ETHUSDT</t>
   </si>
   <si>
@@ -328,6 +331,9 @@
     <t>PUMPFUNUSDT</t>
   </si>
   <si>
+    <t>SKLUSDT</t>
+  </si>
+  <si>
     <t>LONG</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
     <t>2025-09-01 22:42:19</t>
   </si>
   <si>
+    <t>2025-09-01 22:48:36</t>
+  </si>
+  <si>
     <t>Отбой</t>
   </si>
   <si>
@@ -448,10 +457,19 @@
     <t>Импульсный пробой</t>
   </si>
   <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
     <t>[{"tag": "d1_close_vs_level", "a": 0.003363, "b": 0.0034, "res": 0.010882352941176385}]</t>
   </si>
   <si>
+    <t>[{"tag": "d1_close_vs_level", "a": 0.03105, "b": 0.0308, "res": 0.008116883116883123}]</t>
+  </si>
+  <si>
     <t>{"level_type": "resistance", "nl": 0, "nh": 0, "ca": 0, "cb": 8, "tol": 8.34e-05, "atr_eff": 0.000278, "small_ok": true, "near_ok": false, "compact_ok": false}</t>
+  </si>
+  <si>
+    <t>{"level_type": "resistance", "nl": 0, "nh": 1, "ca": 0, "cb": 8, "tol": 0.0006267, "atr_eff": 0.002089, "small_ok": true, "near_ok": false, "compact_ok": false}</t>
   </si>
   <si>
     <t>потому что весь день в падение, много топлива (ATR в начале хода)</t>
@@ -812,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,10 +912,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>3050.6</v>
@@ -912,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -920,10 +938,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>3050.6</v>
@@ -938,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -946,10 +964,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>0.051966</v>
@@ -964,10 +982,10 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -975,10 +993,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>0.051465</v>
@@ -993,10 +1011,10 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1004,10 +1022,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>0.051473</v>
@@ -1022,10 +1040,10 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1033,10 +1051,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>0.05145</v>
@@ -1051,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,10 +1080,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>0.051461</v>
@@ -1080,10 +1098,10 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1091,10 +1109,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>0.05136</v>
@@ -1109,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1120,10 +1138,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>0.051366</v>
@@ -1138,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1149,10 +1167,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>0.052171</v>
@@ -1167,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1178,10 +1196,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D12">
         <v>0.052163</v>
@@ -1196,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1207,10 +1225,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>0.05136</v>
@@ -1225,10 +1243,10 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1236,10 +1254,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>0.051352</v>
@@ -1254,10 +1272,10 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1265,10 +1283,10 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>0.7706</v>
@@ -1283,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1294,10 +1312,10 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>0.05016</v>
@@ -1312,10 +1330,10 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1323,10 +1341,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>0.7705</v>
@@ -1341,10 +1359,10 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1352,10 +1370,10 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>0.7707000000000001</v>
@@ -1370,10 +1388,10 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1381,10 +1399,10 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D19">
         <v>0.7708</v>
@@ -1399,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1410,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>0.050157</v>
@@ -1428,10 +1446,10 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1439,10 +1457,10 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>0.050152</v>
@@ -1457,10 +1475,10 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1468,10 +1486,10 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>22.013</v>
@@ -1486,10 +1504,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1497,10 +1515,10 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>22.014</v>
@@ -1515,10 +1533,10 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1526,10 +1544,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D24">
         <v>0.7691</v>
@@ -1544,10 +1562,10 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1555,10 +1573,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D25">
         <v>0.050153</v>
@@ -1573,10 +1591,10 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1584,10 +1602,10 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>0.05017</v>
@@ -1602,10 +1620,10 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1613,10 +1631,10 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>0.050165</v>
@@ -1631,10 +1649,10 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1642,10 +1660,10 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>0.050166</v>
@@ -1660,10 +1678,10 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1671,10 +1689,10 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D29">
         <v>0.7692</v>
@@ -1689,10 +1707,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1700,10 +1718,10 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <v>0.7693</v>
@@ -1718,10 +1736,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1729,10 +1747,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>0.050173</v>
@@ -1747,10 +1765,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1758,10 +1776,10 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D32">
         <v>22.01</v>
@@ -1776,10 +1794,10 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1787,10 +1805,10 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33">
         <v>22.008</v>
@@ -1805,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1816,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34">
         <v>0.7691</v>
@@ -1834,10 +1852,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1845,10 +1863,10 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>22.015</v>
@@ -1863,10 +1881,10 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1874,10 +1892,10 @@
         <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36">
         <v>22.012</v>
@@ -1892,10 +1910,10 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1903,10 +1921,10 @@
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37">
         <v>22.014</v>
@@ -1921,10 +1939,10 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1932,10 +1950,10 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>22.008</v>
@@ -1950,10 +1968,10 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1961,10 +1979,10 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D39">
         <v>21.832</v>
@@ -1979,10 +1997,10 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1990,10 +2008,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <v>21.828</v>
@@ -2008,10 +2026,10 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2019,10 +2037,10 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D41">
         <v>21.834</v>
@@ -2037,10 +2055,10 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2048,10 +2066,10 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D42">
         <v>0.8408</v>
@@ -2066,10 +2084,10 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2077,10 +2095,10 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D43">
         <v>9.782999999999999</v>
@@ -2095,10 +2113,10 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2106,10 +2124,10 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D44">
         <v>17.515</v>
@@ -2124,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2135,10 +2153,10 @@
         <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D45">
         <v>23.119</v>
@@ -2153,10 +2171,10 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2164,10 +2182,10 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D46">
         <v>17.518</v>
@@ -2182,10 +2200,10 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2193,10 +2211,10 @@
         <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47">
         <v>13.34</v>
@@ -2211,10 +2229,10 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2222,10 +2240,10 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D48">
         <v>0.09561</v>
@@ -2240,10 +2258,10 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2251,10 +2269,10 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D49">
         <v>13.34</v>
@@ -2269,10 +2287,10 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2280,10 +2298,10 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D50">
         <v>9.788</v>
@@ -2298,10 +2316,10 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2309,10 +2327,10 @@
         <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D51">
         <v>0.23779</v>
@@ -2327,10 +2345,10 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2338,10 +2356,10 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D52">
         <v>0.2378</v>
@@ -2356,10 +2374,10 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2367,10 +2385,10 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D53">
         <v>0.23774</v>
@@ -2385,10 +2403,10 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2396,10 +2414,10 @@
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D54">
         <v>3.996</v>
@@ -2414,10 +2432,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2425,10 +2443,10 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <v>0.04354</v>
@@ -2443,10 +2461,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2454,10 +2472,10 @@
         <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D56">
         <v>0.043216</v>
@@ -2472,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I56" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2483,10 +2501,10 @@
         <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D57">
         <v>0.043521</v>
@@ -2501,10 +2519,10 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2512,10 +2530,10 @@
         <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D58">
         <v>0.038542</v>
@@ -2530,10 +2548,10 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I58" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2541,10 +2559,10 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D59">
         <v>0.038425</v>
@@ -2559,10 +2577,10 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I59" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2570,10 +2588,10 @@
         <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D60">
         <v>0.038448</v>
@@ -2588,10 +2606,10 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I60" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2599,10 +2617,10 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D61">
         <v>0.18496</v>
@@ -2617,10 +2635,10 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I61" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2628,10 +2646,10 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D62">
         <v>0.03956</v>
@@ -2646,10 +2664,10 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I62" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2657,10 +2675,10 @@
         <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D63">
         <v>0.039551</v>
@@ -2675,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2686,10 +2704,10 @@
         <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D64">
         <v>37.541</v>
@@ -2704,10 +2722,10 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -2715,10 +2733,10 @@
         <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D65">
         <v>0.003409</v>
@@ -2733,10 +2751,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J65">
         <v>0.003407</v>
@@ -2757,25 +2775,93 @@
         <v>0.0034</v>
       </c>
       <c r="P65" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q65" t="b">
+        <v>146</v>
+      </c>
+      <c r="Q65">
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="T65">
         <v>0.0034</v>
       </c>
       <c r="U65" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="V65">
         <v>83</v>
       </c>
       <c r="W65" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66">
+        <v>0.03096</v>
+      </c>
+      <c r="E66">
+        <v>0.030076</v>
+      </c>
+      <c r="F66">
+        <v>0.031302</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66">
+        <v>0.030908</v>
+      </c>
+      <c r="K66">
+        <v>0.030969</v>
+      </c>
+      <c r="L66">
+        <v>0.03103</v>
+      </c>
+      <c r="M66">
+        <v>0.0308</v>
+      </c>
+      <c r="N66">
+        <v>0.0308</v>
+      </c>
+      <c r="O66">
+        <v>0.0308</v>
+      </c>
+      <c r="P66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="S66" t="s">
+        <v>149</v>
+      </c>
+      <c r="T66">
+        <v>0.0308</v>
+      </c>
+      <c r="U66" t="s">
+        <v>151</v>
+      </c>
+      <c r="V66">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/signals_log.xlsx
+++ b/signals_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="160">
   <si>
     <t>time</t>
   </si>
@@ -280,6 +280,9 @@
     <t>2025-09-01 22:49:34</t>
   </si>
   <si>
+    <t>2025-09-01 22:52:36</t>
+  </si>
+  <si>
     <t>ETHUSDT</t>
   </si>
   <si>
@@ -334,6 +337,9 @@
     <t>SKLUSDT</t>
   </si>
   <si>
+    <t>FILUSDT</t>
+  </si>
+  <si>
     <t>LONG</t>
   </si>
   <si>
@@ -448,6 +454,9 @@
     <t>2025-09-01 22:48:36</t>
   </si>
   <si>
+    <t>2025-09-01 22:52:02</t>
+  </si>
+  <si>
     <t>Отбой</t>
   </si>
   <si>
@@ -460,19 +469,31 @@
     <t>Стандарт</t>
   </si>
   <si>
+    <t>Нарастающий объём</t>
+  </si>
+  <si>
     <t>[{"tag": "d1_close_vs_level", "a": 0.003363, "b": 0.0034, "res": 0.010882352941176385}]</t>
   </si>
   <si>
     <t>[{"tag": "d1_close_vs_level", "a": 0.03105, "b": 0.0308, "res": 0.008116883116883123}]</t>
   </si>
   <si>
+    <t>[{"tag": "d1_close_vs_level", "a": 2.268, "b": 2.3095, "res": 0.017969257415024937}]</t>
+  </si>
+  <si>
     <t>{"level_type": "resistance", "nl": 0, "nh": 0, "ca": 0, "cb": 8, "tol": 8.34e-05, "atr_eff": 0.000278, "small_ok": true, "near_ok": false, "compact_ok": false}</t>
   </si>
   <si>
     <t>{"level_type": "resistance", "nl": 0, "nh": 1, "ca": 0, "cb": 8, "tol": 0.0006267, "atr_eff": 0.002089, "small_ok": true, "near_ok": false, "compact_ok": false}</t>
   </si>
   <si>
+    <t>{"level_type": "resistance", "nl": 5, "nh": 8, "ca": 4, "cb": 4, "tol": 0.03087, "atr_eff": 0.1029, "small_ok": true, "near_ok": true, "compact_ok": false}</t>
+  </si>
+  <si>
     <t>потому что весь день в падение, много топлива (ATR в начале хода)</t>
+  </si>
+  <si>
+    <t>потому что Консолидация над уровнем сопротивления, ближний ретест уровня, весь день в падение</t>
   </si>
 </sst>
 </file>
@@ -830,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,10 +933,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>3050.6</v>
@@ -930,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -938,10 +959,10 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>3050.6</v>
@@ -956,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -964,10 +985,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>0.051966</v>
@@ -982,10 +1003,10 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -993,10 +1014,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5">
         <v>0.051465</v>
@@ -1011,10 +1032,10 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1022,10 +1043,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>0.051473</v>
@@ -1040,10 +1061,10 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1051,10 +1072,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>0.05145</v>
@@ -1069,10 +1090,10 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,10 +1101,10 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8">
         <v>0.051461</v>
@@ -1098,10 +1119,10 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1109,10 +1130,10 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>0.05136</v>
@@ -1127,10 +1148,10 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1159,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>0.051366</v>
@@ -1156,10 +1177,10 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1167,10 +1188,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>0.052171</v>
@@ -1185,10 +1206,10 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1196,10 +1217,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>0.052163</v>
@@ -1214,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1225,10 +1246,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>0.05136</v>
@@ -1243,10 +1264,10 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1254,10 +1275,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14">
         <v>0.051352</v>
@@ -1272,10 +1293,10 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1283,10 +1304,10 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>0.7706</v>
@@ -1301,10 +1322,10 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1312,10 +1333,10 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>0.05016</v>
@@ -1330,10 +1351,10 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1341,10 +1362,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17">
         <v>0.7705</v>
@@ -1359,10 +1380,10 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1370,10 +1391,10 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18">
         <v>0.7707000000000001</v>
@@ -1388,10 +1409,10 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1399,10 +1420,10 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>0.7708</v>
@@ -1417,10 +1438,10 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1428,10 +1449,10 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D20">
         <v>0.050157</v>
@@ -1446,10 +1467,10 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1457,10 +1478,10 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21">
         <v>0.050152</v>
@@ -1475,10 +1496,10 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1486,10 +1507,10 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D22">
         <v>22.013</v>
@@ -1504,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1515,10 +1536,10 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>22.014</v>
@@ -1533,10 +1554,10 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1544,10 +1565,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D24">
         <v>0.7691</v>
@@ -1562,10 +1583,10 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1573,10 +1594,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <v>0.050153</v>
@@ -1591,10 +1612,10 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1602,10 +1623,10 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>0.05017</v>
@@ -1620,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1631,10 +1652,10 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27">
         <v>0.050165</v>
@@ -1649,10 +1670,10 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1660,10 +1681,10 @@
         <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D28">
         <v>0.050166</v>
@@ -1678,10 +1699,10 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1689,10 +1710,10 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <v>0.7692</v>
@@ -1707,10 +1728,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1718,10 +1739,10 @@
         <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <v>0.7693</v>
@@ -1736,10 +1757,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1747,10 +1768,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>0.050173</v>
@@ -1765,10 +1786,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1776,10 +1797,10 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <v>22.01</v>
@@ -1794,10 +1815,10 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1805,10 +1826,10 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <v>22.008</v>
@@ -1823,10 +1844,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1834,10 +1855,10 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34">
         <v>0.7691</v>
@@ -1852,10 +1873,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1863,10 +1884,10 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35">
         <v>22.015</v>
@@ -1881,10 +1902,10 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1892,10 +1913,10 @@
         <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36">
         <v>22.012</v>
@@ -1910,10 +1931,10 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1921,10 +1942,10 @@
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37">
         <v>22.014</v>
@@ -1939,10 +1960,10 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1950,10 +1971,10 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D38">
         <v>22.008</v>
@@ -1968,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1979,10 +2000,10 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>21.832</v>
@@ -1997,10 +2018,10 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2008,10 +2029,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40">
         <v>21.828</v>
@@ -2026,10 +2047,10 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2037,10 +2058,10 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D41">
         <v>21.834</v>
@@ -2055,10 +2076,10 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2066,10 +2087,10 @@
         <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D42">
         <v>0.8408</v>
@@ -2084,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2095,10 +2116,10 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D43">
         <v>9.782999999999999</v>
@@ -2113,10 +2134,10 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2124,10 +2145,10 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D44">
         <v>17.515</v>
@@ -2142,10 +2163,10 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2153,10 +2174,10 @@
         <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <v>23.119</v>
@@ -2171,10 +2192,10 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2182,10 +2203,10 @@
         <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D46">
         <v>17.518</v>
@@ -2200,10 +2221,10 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2211,10 +2232,10 @@
         <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D47">
         <v>13.34</v>
@@ -2229,10 +2250,10 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2240,10 +2261,10 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D48">
         <v>0.09561</v>
@@ -2258,10 +2279,10 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2269,10 +2290,10 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D49">
         <v>13.34</v>
@@ -2287,10 +2308,10 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2298,10 +2319,10 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50">
         <v>9.788</v>
@@ -2316,10 +2337,10 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2327,10 +2348,10 @@
         <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>0.23779</v>
@@ -2345,10 +2366,10 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2356,10 +2377,10 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D52">
         <v>0.2378</v>
@@ -2374,10 +2395,10 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2385,10 +2406,10 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D53">
         <v>0.23774</v>
@@ -2403,10 +2424,10 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2414,10 +2435,10 @@
         <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D54">
         <v>3.996</v>
@@ -2432,10 +2453,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2443,10 +2464,10 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D55">
         <v>0.04354</v>
@@ -2461,10 +2482,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2472,10 +2493,10 @@
         <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D56">
         <v>0.043216</v>
@@ -2490,10 +2511,10 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2501,10 +2522,10 @@
         <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D57">
         <v>0.043521</v>
@@ -2519,10 +2540,10 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2530,10 +2551,10 @@
         <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D58">
         <v>0.038542</v>
@@ -2548,10 +2569,10 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2559,10 +2580,10 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D59">
         <v>0.038425</v>
@@ -2577,10 +2598,10 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2588,10 +2609,10 @@
         <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D60">
         <v>0.038448</v>
@@ -2606,10 +2627,10 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2617,10 +2638,10 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D61">
         <v>0.18496</v>
@@ -2635,10 +2656,10 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2646,10 +2667,10 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D62">
         <v>0.03956</v>
@@ -2664,10 +2685,10 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2675,10 +2696,10 @@
         <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D63">
         <v>0.039551</v>
@@ -2693,10 +2714,10 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I63" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2704,10 +2725,10 @@
         <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D64">
         <v>37.541</v>
@@ -2722,10 +2743,10 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I64" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -2733,10 +2754,10 @@
         <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D65">
         <v>0.003409</v>
@@ -2751,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I65" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J65">
         <v>0.003407</v>
@@ -2775,25 +2796,25 @@
         <v>0.0034</v>
       </c>
       <c r="P65" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="S65" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T65">
         <v>0.0034</v>
       </c>
       <c r="U65" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V65">
         <v>83</v>
       </c>
       <c r="W65" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -2801,10 +2822,10 @@
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D66">
         <v>0.03096</v>
@@ -2819,10 +2840,10 @@
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J66">
         <v>0.030908</v>
@@ -2843,25 +2864,93 @@
         <v>0.0308</v>
       </c>
       <c r="P66" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="T66">
         <v>0.0308</v>
       </c>
       <c r="U66" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="V66">
         <v>73</v>
       </c>
       <c r="W66" t="s">
-        <v>152</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67">
+        <v>2.315</v>
+      </c>
+      <c r="E67">
+        <v>2.260548</v>
+      </c>
+      <c r="F67">
+        <v>2.337857</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67">
+        <v>2.314119</v>
+      </c>
+      <c r="K67">
+        <v>2.316428</v>
+      </c>
+      <c r="L67">
+        <v>2.318</v>
+      </c>
+      <c r="M67">
+        <v>2.3095</v>
+      </c>
+      <c r="N67">
+        <v>2.3095</v>
+      </c>
+      <c r="O67">
+        <v>2.3095</v>
+      </c>
+      <c r="P67" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="S67" t="s">
+        <v>154</v>
+      </c>
+      <c r="T67">
+        <v>2.3095</v>
+      </c>
+      <c r="U67" t="s">
+        <v>157</v>
+      </c>
+      <c r="V67">
+        <v>84</v>
+      </c>
+      <c r="W67" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
